--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -992,9 +992,6 @@
     <t>PRO_OBTEM_CENTRO_RESULTADO(COD_TIPO_CURSO, COD_CAMPUS, NVL( COD_CURSO, COD_CURSO_EXTENSAO), COD_TURNO, NOM_PROCESSO, COD_TIPO_ATUACAO, COD_INSTITUICAO)</t>
   </si>
   <si>
-    <t>Carregar com 'PRO_APURACAO_ATUACAO_FIXA'</t>
-  </si>
-  <si>
     <t>CAMPUS</t>
   </si>
   <si>
@@ -1116,6 +1113,9 @@
   </si>
   <si>
     <t>Vanessa Felix</t>
+  </si>
+  <si>
+    <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
   </si>
 </sst>
 </file>
@@ -1967,6 +1967,66 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,107 +2036,86 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2086,45 +2125,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2822,14 +2822,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="116"/>
+      <c r="C2" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>1</v>
@@ -2837,12 +2837,12 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -2863,28 +2863,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
@@ -2893,17 +2893,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -2912,92 +2912,84 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="D12" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3008,6 +3000,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="41" t="str">
         <f>Identificação!D3</f>
@@ -3065,17 +3065,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
@@ -3084,119 +3084,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="90" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="90" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="90" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -3210,17 +3210,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
@@ -3232,29 +3232,29 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -3268,11 +3268,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
@@ -3287,17 +3287,17 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="88"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B24" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="88" t="s">
         <v>137</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="13"/>
     </row>
@@ -3313,17 +3313,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
@@ -3335,52 +3335,61 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3397,15 +3406,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3422,11 +3422,11 @@
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D43" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I28" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3471,39 +3471,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="67">
         <v>10</v>
@@ -3630,10 +3630,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3644,7 +3644,7 @@
       <c r="V4" s="84"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y4" s="67">
         <v>10</v>
@@ -3676,7 +3676,7 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="67">
         <v>10</v>
@@ -3692,10 +3692,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3706,7 +3706,7 @@
       <c r="V5" s="84"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y5" s="67">
         <v>10</v>
@@ -3738,7 +3738,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="67">
         <v>2</v>
@@ -3754,10 +3754,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3768,7 +3768,7 @@
       <c r="V6" s="85"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y6" s="67">
         <v>2</v>
@@ -3800,7 +3800,7 @@
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
@@ -3814,10 +3814,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3828,7 +3828,7 @@
       <c r="V7" s="86"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y7" s="67"/>
       <c r="Z7" s="67"/>
@@ -3858,7 +3858,7 @@
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
@@ -3872,10 +3872,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3886,7 +3886,7 @@
       <c r="V8" s="84"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -3916,7 +3916,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="67">
         <v>4</v>
@@ -3932,10 +3932,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3946,7 +3946,7 @@
       <c r="V9" s="84"/>
       <c r="W9" s="66"/>
       <c r="X9" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y9" s="67">
         <v>4</v>
@@ -3978,7 +3978,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="67">
         <v>1</v>
@@ -3994,10 +3994,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -4008,7 +4008,7 @@
       <c r="V10" s="84"/>
       <c r="W10" s="66"/>
       <c r="X10" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y10" s="67">
         <v>1</v>
@@ -4040,7 +4040,7 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="67">
         <v>4</v>
@@ -4056,10 +4056,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -4070,7 +4070,7 @@
       <c r="V11" s="84"/>
       <c r="W11" s="66"/>
       <c r="X11" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y11" s="67">
         <v>4</v>
@@ -4102,7 +4102,7 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" s="67">
         <v>8</v>
@@ -4118,10 +4118,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4132,7 +4132,7 @@
       <c r="V12" s="85"/>
       <c r="W12" s="66"/>
       <c r="X12" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y12" s="67">
         <v>8</v>
@@ -4164,7 +4164,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="69">
         <v>12</v>
@@ -4182,10 +4182,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4196,7 +4196,7 @@
       <c r="V13" s="86"/>
       <c r="W13" s="66"/>
       <c r="X13" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y13" s="69">
         <v>12</v>
@@ -4230,7 +4230,7 @@
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="67">
         <v>6</v>
@@ -4248,10 +4248,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4262,7 +4262,7 @@
       <c r="V14" s="86"/>
       <c r="W14" s="66"/>
       <c r="X14" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y14" s="67">
         <v>6</v>
@@ -4296,7 +4296,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="67">
         <v>6</v>
@@ -4314,10 +4314,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4328,7 +4328,7 @@
       <c r="V15" s="86"/>
       <c r="W15" s="66"/>
       <c r="X15" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y15" s="67">
         <v>6</v>
@@ -4362,7 +4362,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="67">
         <v>11</v>
@@ -4378,10 +4378,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4392,7 +4392,7 @@
       <c r="V16" s="87"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y16" s="67">
         <v>1</v>
@@ -4424,7 +4424,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4440,10 +4440,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4454,7 +4454,7 @@
       <c r="V17" s="87"/>
       <c r="W17" s="67"/>
       <c r="X17" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4486,7 +4486,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K18" s="67">
         <v>1</v>
@@ -4502,10 +4502,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4516,7 +4516,7 @@
       <c r="V18" s="87"/>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y18" s="67">
         <v>11</v>
@@ -4548,7 +4548,7 @@
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="67">
         <v>8</v>
@@ -4566,10 +4566,10 @@
         <v>120</v>
       </c>
       <c r="R19" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T19" s="71" t="s">
         <v>91</v>
@@ -4580,7 +4580,7 @@
       <c r="V19" s="87"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y19" s="67">
         <v>8</v>
@@ -4614,7 +4614,7 @@
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
       <c r="J20" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K20" s="67">
         <v>5</v>
@@ -4630,10 +4630,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4644,7 +4644,7 @@
       <c r="V20" s="87"/>
       <c r="W20" s="67"/>
       <c r="X20" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y20" s="67">
         <v>5</v>
@@ -4676,7 +4676,7 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" s="67">
         <v>10</v>
@@ -4692,10 +4692,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4706,7 +4706,7 @@
       <c r="V21" s="87"/>
       <c r="W21" s="67"/>
       <c r="X21" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y21" s="67">
         <v>10</v>
@@ -4738,7 +4738,7 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" s="67">
         <v>2</v>
@@ -4754,10 +4754,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4768,7 +4768,7 @@
       <c r="V22" s="87"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y22" s="67">
         <v>2</v>
@@ -4800,7 +4800,7 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="67">
         <v>15</v>
@@ -4816,10 +4816,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4830,7 +4830,7 @@
       <c r="V23" s="87"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y23" s="67">
         <v>15</v>
@@ -4862,7 +4862,7 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="67">
         <v>2</v>
@@ -4878,10 +4878,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4892,7 +4892,7 @@
       <c r="V24" s="87"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y24" s="67">
         <v>2</v>
@@ -4924,7 +4924,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25" s="67">
         <v>5</v>
@@ -4940,10 +4940,10 @@
         <v>120</v>
       </c>
       <c r="R25" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S25" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>97</v>
@@ -4954,7 +4954,7 @@
       <c r="V25" s="87"/>
       <c r="W25" s="67"/>
       <c r="X25" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y25" s="67">
         <v>5</v>
@@ -4986,7 +4986,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" s="67">
         <v>11</v>
@@ -5002,10 +5002,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -5016,7 +5016,7 @@
       <c r="V26" s="87"/>
       <c r="W26" s="67"/>
       <c r="X26" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y26" s="67">
         <v>11</v>
@@ -5048,7 +5048,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" s="67">
         <v>3</v>
@@ -5064,10 +5064,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5078,7 +5078,7 @@
       <c r="V27" s="87"/>
       <c r="W27" s="67"/>
       <c r="X27" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y27" s="67">
         <v>3</v>
@@ -5110,7 +5110,7 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="67">
         <v>5</v>
@@ -5126,10 +5126,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5140,7 +5140,7 @@
       <c r="V28" s="87"/>
       <c r="W28" s="67"/>
       <c r="X28" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y28" s="67">
         <v>5</v>
@@ -5172,7 +5172,7 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="67">
         <v>1</v>
@@ -5188,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5202,7 +5202,7 @@
       <c r="V29" s="87"/>
       <c r="W29" s="67"/>
       <c r="X29" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y29" s="67">
         <v>1</v>
@@ -5234,7 +5234,7 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="67">
         <v>3</v>
@@ -5250,10 +5250,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5264,7 +5264,7 @@
       <c r="V30" s="87"/>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y30" s="67">
         <v>3</v>
@@ -5282,10 +5282,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="81" t="s">
         <v>104</v>
@@ -5296,7 +5296,7 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" s="67">
         <v>6</v>
@@ -5312,10 +5312,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5326,7 +5326,7 @@
       <c r="V31" s="87"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y31" s="67">
         <v>6</v>
@@ -5358,7 +5358,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" s="67">
         <v>1</v>
@@ -5374,10 +5374,10 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T32" s="81" t="s">
         <v>116</v>
@@ -5388,7 +5388,7 @@
       <c r="V32" s="87"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y32" s="67">
         <v>1</v>
@@ -5420,7 +5420,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33" s="67">
         <v>1</v>
@@ -5436,10 +5436,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5450,7 +5450,7 @@
       <c r="V33" s="87"/>
       <c r="W33" s="67"/>
       <c r="X33" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y33" s="67">
         <v>1</v>
@@ -5482,7 +5482,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K34" s="67">
         <v>1</v>
@@ -5498,10 +5498,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5512,7 +5512,7 @@
       <c r="V34" s="87"/>
       <c r="W34" s="67"/>
       <c r="X34" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y34" s="67">
         <v>1</v>
@@ -5534,7 +5534,7 @@
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -5542,7 +5542,7 @@
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -5550,10 +5550,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5563,10 +5563,10 @@
       </c>
       <c r="V35" s="87"/>
       <c r="W35" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5598,7 +5598,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" s="67">
         <v>12</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="M36" s="67"/>
       <c r="N36" s="99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O36" s="80"/>
       <c r="P36" s="80"/>
@@ -5616,10 +5616,10 @@
         <v>120</v>
       </c>
       <c r="R36" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S36" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T36" s="82" t="s">
         <v>108</v>
@@ -5630,7 +5630,7 @@
       <c r="V36" s="87"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y36" s="67">
         <v>12</v>
@@ -5654,7 +5654,7 @@
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
       <c r="J37" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K37" s="67">
         <v>6</v>
@@ -5672,10 +5672,10 @@
         <v>120</v>
       </c>
       <c r="R37" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S37" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5686,7 +5686,7 @@
       <c r="V37" s="87"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y37" s="67">
         <v>6</v>
@@ -5720,45 +5720,45 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" s="67">
         <v>1</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="150" t="s">
+      <c r="N38" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="S38" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="T38" s="150" t="s">
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="S38" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="T38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="150" t="s">
+      <c r="U38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y38" s="147">
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y38" s="160">
         <v>30</v>
       </c>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="147"/>
-      <c r="AB38" s="147"/>
-      <c r="AC38" s="147"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="104"/>
@@ -5775,26 +5775,26 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S39" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S39" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="104"/>
@@ -5811,26 +5811,26 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S40" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="148"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S40" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="67" t="s">
@@ -5854,33 +5854,33 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K41" s="67">
         <v>2</v>
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S41" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="148"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="148"/>
-      <c r="AA41" s="148"/>
-      <c r="AB41" s="148"/>
-      <c r="AC41" s="148"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S41" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="161"/>
+      <c r="AA41" s="161"/>
+      <c r="AB41" s="161"/>
+      <c r="AC41" s="161"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
@@ -5904,33 +5904,33 @@
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K42" s="67">
         <v>4</v>
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S42" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
-      <c r="AC42" s="148"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S42" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="67" t="s">
@@ -5954,33 +5954,33 @@
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" s="67">
         <v>8</v>
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S43" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="148"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="148"/>
-      <c r="AB43" s="148"/>
-      <c r="AC43" s="148"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S43" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="161"/>
+      <c r="AA43" s="161"/>
+      <c r="AB43" s="161"/>
+      <c r="AC43" s="161"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
@@ -6004,33 +6004,33 @@
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K44" s="67">
         <v>4</v>
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S44" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="148"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="148"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="148"/>
-      <c r="AB44" s="148"/>
-      <c r="AC44" s="148"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S44" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
@@ -6054,33 +6054,33 @@
       <c r="H45" s="67"/>
       <c r="I45" s="67"/>
       <c r="J45" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K45" s="67">
         <v>1</v>
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S45" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-      <c r="AA45" s="148"/>
-      <c r="AB45" s="148"/>
-      <c r="AC45" s="148"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S45" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+      <c r="AA45" s="161"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="67" t="s">
@@ -6104,33 +6104,33 @@
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K46" s="67">
         <v>3</v>
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S46" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="148"/>
-      <c r="X46" s="148"/>
-      <c r="Y46" s="148"/>
-      <c r="Z46" s="148"/>
-      <c r="AA46" s="148"/>
-      <c r="AB46" s="148"/>
-      <c r="AC46" s="148"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+      <c r="AA46" s="161"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="67" t="s">
@@ -6154,33 +6154,33 @@
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
       <c r="J47" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K47" s="67">
         <v>6</v>
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S47" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S47" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="161"/>
+      <c r="AA47" s="161"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
@@ -6204,33 +6204,33 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K48" s="67">
         <v>10</v>
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="S48" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="T48" s="152"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="149"/>
-      <c r="AC48" s="149"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="S48" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="67" t="s">
@@ -6254,45 +6254,45 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K49" s="67">
         <v>3</v>
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="150" t="s">
+      <c r="N49" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="S49" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="T49" s="150" t="s">
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="S49" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="T49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="150" t="s">
+      <c r="U49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y49" s="147">
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y49" s="160">
         <v>15</v>
       </c>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
+      <c r="Z49" s="160"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="160"/>
+      <c r="AC49" s="160"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="67" t="s">
@@ -6316,33 +6316,33 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" s="67">
         <v>4</v>
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S50" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="148"/>
-      <c r="AC50" s="148"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S50" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="161"/>
+      <c r="W50" s="161"/>
+      <c r="X50" s="161"/>
+      <c r="Y50" s="161"/>
+      <c r="Z50" s="161"/>
+      <c r="AA50" s="161"/>
+      <c r="AB50" s="161"/>
+      <c r="AC50" s="161"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
@@ -6366,33 +6366,33 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" s="67">
         <v>4</v>
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S51" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S51" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161"/>
+      <c r="Z51" s="161"/>
+      <c r="AA51" s="161"/>
+      <c r="AB51" s="161"/>
+      <c r="AC51" s="161"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
@@ -6416,33 +6416,33 @@
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K52" s="67">
         <v>8</v>
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S52" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="148"/>
-      <c r="W52" s="148"/>
-      <c r="X52" s="148"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="148"/>
-      <c r="AA52" s="148"/>
-      <c r="AB52" s="148"/>
-      <c r="AC52" s="148"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S52" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="161"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="161"/>
+      <c r="Z52" s="161"/>
+      <c r="AA52" s="161"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
@@ -6466,33 +6466,33 @@
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K53" s="67">
         <v>1</v>
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S53" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="148"/>
-      <c r="W53" s="148"/>
-      <c r="X53" s="148"/>
-      <c r="Y53" s="148"/>
-      <c r="Z53" s="148"/>
-      <c r="AA53" s="148"/>
-      <c r="AB53" s="148"/>
-      <c r="AC53" s="148"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S53" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="161"/>
+      <c r="Z53" s="161"/>
+      <c r="AA53" s="161"/>
+      <c r="AB53" s="161"/>
+      <c r="AC53" s="161"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="104"/>
@@ -6508,33 +6508,33 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54" s="3">
         <v>60</v>
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S54" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T54" s="151"/>
-      <c r="U54" s="151"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="148"/>
-      <c r="AB54" s="148"/>
-      <c r="AC54" s="148"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S54" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="161"/>
+      <c r="AA54" s="161"/>
+      <c r="AB54" s="161"/>
+      <c r="AC54" s="161"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="67" t="s">
@@ -6558,33 +6558,33 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" s="67">
         <v>6</v>
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="151"/>
-      <c r="R55" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="S55" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="T55" s="151"/>
-      <c r="U55" s="151"/>
-      <c r="V55" s="148"/>
-      <c r="W55" s="148"/>
-      <c r="X55" s="148"/>
-      <c r="Y55" s="148"/>
-      <c r="Z55" s="148"/>
-      <c r="AA55" s="148"/>
-      <c r="AB55" s="148"/>
-      <c r="AC55" s="148"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="S55" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
+      <c r="X55" s="161"/>
+      <c r="Y55" s="161"/>
+      <c r="Z55" s="161"/>
+      <c r="AA55" s="161"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="67" t="s">
@@ -6608,33 +6608,33 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K56" s="67">
         <v>10</v>
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="S56" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="149"/>
-      <c r="Y56" s="149"/>
-      <c r="Z56" s="149"/>
-      <c r="AA56" s="149"/>
-      <c r="AB56" s="149"/>
-      <c r="AC56" s="149"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="S56" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="162"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="162"/>
+      <c r="Y56" s="162"/>
+      <c r="Z56" s="162"/>
+      <c r="AA56" s="162"/>
+      <c r="AB56" s="162"/>
+      <c r="AC56" s="162"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="91"/>
@@ -6650,7 +6650,7 @@
       <c r="L57" s="94"/>
       <c r="M57" s="91"/>
       <c r="N57" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O57" s="95"/>
       <c r="P57" s="95"/>
@@ -6658,23 +6658,23 @@
         <v>120</v>
       </c>
       <c r="R57" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T57" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U57" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V57" s="96"/>
       <c r="W57" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y57" s="67">
         <v>2</v>
@@ -6698,7 +6698,7 @@
       <c r="L58" s="94"/>
       <c r="M58" s="91"/>
       <c r="N58" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O58" s="95"/>
       <c r="P58" s="95"/>
@@ -6706,23 +6706,23 @@
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T58" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U58" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V58" s="96"/>
       <c r="W58" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X58" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y58" s="67">
         <v>2</v>
@@ -6752,23 +6752,23 @@
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T59" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U59" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V59" s="96"/>
       <c r="W59" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X59" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y59" s="67"/>
       <c r="Z59" s="87"/>
@@ -7307,6 +7307,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7323,25 +7342,6 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7401,7 +7401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -7498,39 +7498,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -7628,19 +7628,19 @@
         <v>120</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="96"/>
       <c r="H4" s="96"/>
       <c r="I4" s="96"/>
       <c r="J4" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="87">
         <v>2</v>
@@ -7648,7 +7648,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="96"/>
       <c r="N4" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O4" s="98"/>
       <c r="P4" s="95"/>
@@ -7656,23 +7656,23 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T4" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U4" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V4" s="96"/>
       <c r="W4" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X4" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y4" s="87">
         <v>2</v>
@@ -7691,10 +7691,10 @@
         <v>120</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>90</v>
@@ -7703,7 +7703,7 @@
       <c r="H5" s="96"/>
       <c r="I5" s="96"/>
       <c r="J5" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="87">
         <v>1</v>
@@ -7711,7 +7711,7 @@
       <c r="L5" s="87"/>
       <c r="M5" s="96"/>
       <c r="N5" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="95"/>
@@ -7719,23 +7719,23 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V5" s="96"/>
       <c r="W5" s="87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X5" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y5" s="87">
         <v>1</v>
@@ -8155,10 +8155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8207,7 +8203,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8216,21 +8222,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8245,15 +8237,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8266,4 +8258,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -953,9 +953,6 @@
     <t>Sem Transformação</t>
   </si>
   <si>
-    <t>Carregar com nulo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se COD_TIPO_ATUACAO IS NOT NULL entao
       SELECT CASE IND_TIPO_CONTRATO 
         WHEN 'F' THEN RI.COD_VERBA_RH
@@ -1116,6 +1113,20 @@
   </si>
   <si>
     <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
+  </si>
+  <si>
+    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
+          THEN
+            --
+ ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
+          THEN
+            --
+            IF NVL(R_AP.VALOR_HORA, 0) &lt; 0
+            THEN
+              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
+            END IF;
+            --
+          END IF;</t>
   </si>
 </sst>
 </file>
@@ -1967,6 +1978,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1979,15 +2008,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2027,14 +2047,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2048,9 +2068,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2072,11 +2089,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2096,15 +2125,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2116,15 +2136,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2822,14 +2833,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="110"/>
+      <c r="C2" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>1</v>
@@ -2837,12 +2848,12 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -2863,28 +2874,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
@@ -2893,17 +2904,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -2912,84 +2923,92 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
+      <c r="D12" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3000,14 +3019,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3045,7 +3056,7 @@
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="41" t="str">
         <f>Identificação!D3</f>
@@ -3065,17 +3076,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
@@ -3084,119 +3095,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="90" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="90" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="90" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -3210,17 +3221,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
@@ -3232,29 +3243,29 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="141" t="s">
+      <c r="F18" s="145"/>
+      <c r="G18" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -3268,11 +3279,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
@@ -3287,17 +3298,17 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="88"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B24" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="88" t="s">
         <v>136</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>137</v>
       </c>
       <c r="D24" s="13"/>
     </row>
@@ -3313,17 +3324,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
@@ -3335,61 +3346,52 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146" t="s">
+      <c r="F27" s="135"/>
+      <c r="G27" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3406,6 +3408,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3423,10 +3434,10 @@
   <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I28" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3471,39 +3482,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -3614,7 +3625,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="67">
         <v>10</v>
@@ -3630,10 +3641,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3644,7 +3655,7 @@
       <c r="V4" s="84"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y4" s="67">
         <v>10</v>
@@ -3676,7 +3687,7 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="67">
         <v>10</v>
@@ -3692,10 +3703,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3706,7 +3717,7 @@
       <c r="V5" s="84"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y5" s="67">
         <v>10</v>
@@ -3738,7 +3749,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="67">
         <v>2</v>
@@ -3754,10 +3765,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3768,7 +3779,7 @@
       <c r="V6" s="85"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y6" s="67">
         <v>2</v>
@@ -3800,7 +3811,7 @@
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
@@ -3814,10 +3825,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3828,7 +3839,7 @@
       <c r="V7" s="86"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="67"/>
       <c r="Z7" s="67"/>
@@ -3858,7 +3869,7 @@
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
@@ -3872,10 +3883,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3886,7 +3897,7 @@
       <c r="V8" s="84"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -3916,7 +3927,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="67">
         <v>4</v>
@@ -3932,10 +3943,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3946,7 +3957,7 @@
       <c r="V9" s="84"/>
       <c r="W9" s="66"/>
       <c r="X9" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y9" s="67">
         <v>4</v>
@@ -3978,7 +3989,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="67">
         <v>1</v>
@@ -3994,10 +4005,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -4008,7 +4019,7 @@
       <c r="V10" s="84"/>
       <c r="W10" s="66"/>
       <c r="X10" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y10" s="67">
         <v>1</v>
@@ -4040,7 +4051,7 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="67">
         <v>4</v>
@@ -4056,10 +4067,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -4070,7 +4081,7 @@
       <c r="V11" s="84"/>
       <c r="W11" s="66"/>
       <c r="X11" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y11" s="67">
         <v>4</v>
@@ -4102,7 +4113,7 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="67">
         <v>8</v>
@@ -4118,10 +4129,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4132,7 +4143,7 @@
       <c r="V12" s="85"/>
       <c r="W12" s="66"/>
       <c r="X12" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="67">
         <v>8</v>
@@ -4164,7 +4175,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="69">
         <v>12</v>
@@ -4182,10 +4193,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4196,7 +4207,7 @@
       <c r="V13" s="86"/>
       <c r="W13" s="66"/>
       <c r="X13" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y13" s="69">
         <v>12</v>
@@ -4230,7 +4241,7 @@
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="67">
         <v>6</v>
@@ -4248,10 +4259,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4262,7 +4273,7 @@
       <c r="V14" s="86"/>
       <c r="W14" s="66"/>
       <c r="X14" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y14" s="67">
         <v>6</v>
@@ -4296,7 +4307,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" s="67">
         <v>6</v>
@@ -4314,10 +4325,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4328,7 +4339,7 @@
       <c r="V15" s="86"/>
       <c r="W15" s="66"/>
       <c r="X15" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y15" s="67">
         <v>6</v>
@@ -4362,7 +4373,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K16" s="67">
         <v>11</v>
@@ -4378,10 +4389,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4392,7 +4403,7 @@
       <c r="V16" s="87"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y16" s="67">
         <v>1</v>
@@ -4424,7 +4435,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4440,10 +4451,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4454,7 +4465,7 @@
       <c r="V17" s="87"/>
       <c r="W17" s="67"/>
       <c r="X17" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4486,7 +4497,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" s="67">
         <v>1</v>
@@ -4502,10 +4513,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4516,7 +4527,7 @@
       <c r="V18" s="87"/>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="67">
         <v>11</v>
@@ -4548,7 +4559,7 @@
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" s="67">
         <v>8</v>
@@ -4566,10 +4577,10 @@
         <v>120</v>
       </c>
       <c r="R19" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T19" s="71" t="s">
         <v>91</v>
@@ -4580,7 +4591,7 @@
       <c r="V19" s="87"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y19" s="67">
         <v>8</v>
@@ -4614,7 +4625,7 @@
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
       <c r="J20" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K20" s="67">
         <v>5</v>
@@ -4630,10 +4641,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4644,7 +4655,7 @@
       <c r="V20" s="87"/>
       <c r="W20" s="67"/>
       <c r="X20" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="67">
         <v>5</v>
@@ -4676,7 +4687,7 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21" s="67">
         <v>10</v>
@@ -4692,10 +4703,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4706,7 +4717,7 @@
       <c r="V21" s="87"/>
       <c r="W21" s="67"/>
       <c r="X21" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="67">
         <v>10</v>
@@ -4738,7 +4749,7 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="67">
         <v>2</v>
@@ -4754,10 +4765,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4768,7 +4779,7 @@
       <c r="V22" s="87"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y22" s="67">
         <v>2</v>
@@ -4800,7 +4811,7 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="67">
         <v>15</v>
@@ -4816,10 +4827,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4830,7 +4841,7 @@
       <c r="V23" s="87"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y23" s="67">
         <v>15</v>
@@ -4862,7 +4873,7 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K24" s="67">
         <v>2</v>
@@ -4878,10 +4889,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4892,7 +4903,7 @@
       <c r="V24" s="87"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y24" s="67">
         <v>2</v>
@@ -4924,7 +4935,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" s="67">
         <v>5</v>
@@ -4940,10 +4951,10 @@
         <v>120</v>
       </c>
       <c r="R25" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S25" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>97</v>
@@ -4954,7 +4965,7 @@
       <c r="V25" s="87"/>
       <c r="W25" s="67"/>
       <c r="X25" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y25" s="67">
         <v>5</v>
@@ -4986,7 +4997,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" s="67">
         <v>11</v>
@@ -5002,10 +5013,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -5016,7 +5027,7 @@
       <c r="V26" s="87"/>
       <c r="W26" s="67"/>
       <c r="X26" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="67">
         <v>11</v>
@@ -5048,7 +5059,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" s="67">
         <v>3</v>
@@ -5064,10 +5075,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5078,7 +5089,7 @@
       <c r="V27" s="87"/>
       <c r="W27" s="67"/>
       <c r="X27" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y27" s="67">
         <v>3</v>
@@ -5110,7 +5121,7 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" s="67">
         <v>5</v>
@@ -5126,10 +5137,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5140,7 +5151,7 @@
       <c r="V28" s="87"/>
       <c r="W28" s="67"/>
       <c r="X28" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y28" s="67">
         <v>5</v>
@@ -5172,7 +5183,7 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K29" s="67">
         <v>1</v>
@@ -5188,10 +5199,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5202,7 +5213,7 @@
       <c r="V29" s="87"/>
       <c r="W29" s="67"/>
       <c r="X29" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y29" s="67">
         <v>1</v>
@@ -5234,7 +5245,7 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="67">
         <v>3</v>
@@ -5250,10 +5261,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5264,7 +5275,7 @@
       <c r="V30" s="87"/>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y30" s="67">
         <v>3</v>
@@ -5282,10 +5293,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="81" t="s">
         <v>104</v>
@@ -5296,7 +5307,7 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31" s="67">
         <v>6</v>
@@ -5312,10 +5323,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5326,7 +5337,7 @@
       <c r="V31" s="87"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y31" s="67">
         <v>6</v>
@@ -5358,7 +5369,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K32" s="67">
         <v>1</v>
@@ -5374,10 +5385,10 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T32" s="81" t="s">
         <v>116</v>
@@ -5388,7 +5399,7 @@
       <c r="V32" s="87"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y32" s="67">
         <v>1</v>
@@ -5420,7 +5431,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K33" s="67">
         <v>1</v>
@@ -5436,10 +5447,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5450,7 +5461,7 @@
       <c r="V33" s="87"/>
       <c r="W33" s="67"/>
       <c r="X33" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y33" s="67">
         <v>1</v>
@@ -5482,7 +5493,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" s="67">
         <v>1</v>
@@ -5498,10 +5509,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5512,7 +5523,7 @@
       <c r="V34" s="87"/>
       <c r="W34" s="67"/>
       <c r="X34" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y34" s="67">
         <v>1</v>
@@ -5534,7 +5545,7 @@
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -5542,7 +5553,7 @@
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -5550,10 +5561,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5563,10 +5574,10 @@
       </c>
       <c r="V35" s="87"/>
       <c r="W35" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5598,7 +5609,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K36" s="67">
         <v>12</v>
@@ -5608,7 +5619,7 @@
       </c>
       <c r="M36" s="67"/>
       <c r="N36" s="99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O36" s="80"/>
       <c r="P36" s="80"/>
@@ -5616,10 +5627,10 @@
         <v>120</v>
       </c>
       <c r="R36" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T36" s="82" t="s">
         <v>108</v>
@@ -5630,7 +5641,7 @@
       <c r="V36" s="87"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y36" s="67">
         <v>12</v>
@@ -5642,7 +5653,7 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="67"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" ht="156" x14ac:dyDescent="0.2">
       <c r="B37" s="104"/>
       <c r="C37" s="104"/>
       <c r="D37" s="105"/>
@@ -5654,7 +5665,7 @@
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
       <c r="J37" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K37" s="67">
         <v>6</v>
@@ -5663,8 +5674,8 @@
         <v>2</v>
       </c>
       <c r="M37" s="67"/>
-      <c r="N37" s="72" t="s">
-        <v>122</v>
+      <c r="N37" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="O37" s="63"/>
       <c r="P37" s="64"/>
@@ -5672,10 +5683,10 @@
         <v>120</v>
       </c>
       <c r="R37" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S37" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5686,7 +5697,7 @@
       <c r="V37" s="87"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y37" s="67">
         <v>6</v>
@@ -5720,45 +5731,45 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" s="67">
         <v>1</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="153" t="s">
-        <v>123</v>
-      </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="S38" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="T38" s="153" t="s">
+      <c r="N38" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="S38" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="T38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="153" t="s">
+      <c r="U38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y38" s="160">
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y38" s="147">
         <v>30</v>
       </c>
-      <c r="Z38" s="160"/>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="160"/>
-      <c r="AC38" s="160"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="147"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="104"/>
@@ -5767,7 +5778,7 @@
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
       <c r="G39" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -5775,26 +5786,26 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="154"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="154"/>
-      <c r="R39" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S39" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T39" s="154"/>
-      <c r="U39" s="154"/>
-      <c r="V39" s="161"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="161"/>
-      <c r="Y39" s="161"/>
-      <c r="Z39" s="161"/>
-      <c r="AA39" s="161"/>
-      <c r="AB39" s="161"/>
-      <c r="AC39" s="161"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S39" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="104"/>
@@ -5803,7 +5814,7 @@
       <c r="E40" s="103"/>
       <c r="F40" s="103"/>
       <c r="G40" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
@@ -5811,26 +5822,26 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="154"/>
-      <c r="R40" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S40" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T40" s="154"/>
-      <c r="U40" s="154"/>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="161"/>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
-      <c r="AA40" s="161"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S40" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="67" t="s">
@@ -5854,33 +5865,33 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" s="67">
         <v>2</v>
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="154"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S41" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T41" s="154"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="161"/>
-      <c r="Y41" s="161"/>
-      <c r="Z41" s="161"/>
-      <c r="AA41" s="161"/>
-      <c r="AB41" s="161"/>
-      <c r="AC41" s="161"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S41" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="148"/>
+      <c r="X41" s="148"/>
+      <c r="Y41" s="148"/>
+      <c r="Z41" s="148"/>
+      <c r="AA41" s="148"/>
+      <c r="AB41" s="148"/>
+      <c r="AC41" s="148"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
@@ -5904,33 +5915,33 @@
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" s="67">
         <v>4</v>
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S42" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="161"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="161"/>
-      <c r="Y42" s="161"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S42" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="67" t="s">
@@ -5954,33 +5965,33 @@
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K43" s="67">
         <v>8</v>
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="148"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S43" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="161"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="161"/>
-      <c r="Y43" s="161"/>
-      <c r="Z43" s="161"/>
-      <c r="AA43" s="161"/>
-      <c r="AB43" s="161"/>
-      <c r="AC43" s="161"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S43" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
@@ -6004,33 +6015,33 @@
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" s="67">
         <v>4</v>
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S44" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T44" s="154"/>
-      <c r="U44" s="154"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="161"/>
-      <c r="AA44" s="161"/>
-      <c r="AB44" s="161"/>
-      <c r="AC44" s="161"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S44" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
@@ -6054,33 +6065,33 @@
       <c r="H45" s="67"/>
       <c r="I45" s="67"/>
       <c r="J45" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" s="67">
         <v>1</v>
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="154"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="154"/>
-      <c r="R45" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S45" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T45" s="154"/>
-      <c r="U45" s="154"/>
-      <c r="V45" s="161"/>
-      <c r="W45" s="161"/>
-      <c r="X45" s="161"/>
-      <c r="Y45" s="161"/>
-      <c r="Z45" s="161"/>
-      <c r="AA45" s="161"/>
-      <c r="AB45" s="161"/>
-      <c r="AC45" s="161"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S45" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="148"/>
+      <c r="Y45" s="148"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="67" t="s">
@@ -6104,33 +6115,33 @@
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K46" s="67">
         <v>3</v>
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S46" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="161"/>
-      <c r="W46" s="161"/>
-      <c r="X46" s="161"/>
-      <c r="Y46" s="161"/>
-      <c r="Z46" s="161"/>
-      <c r="AA46" s="161"/>
-      <c r="AB46" s="161"/>
-      <c r="AC46" s="161"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S46" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="148"/>
+      <c r="X46" s="148"/>
+      <c r="Y46" s="148"/>
+      <c r="Z46" s="148"/>
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="148"/>
+      <c r="AC46" s="148"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="67" t="s">
@@ -6154,33 +6165,33 @@
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
       <c r="J47" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K47" s="67">
         <v>6</v>
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="154"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S47" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T47" s="154"/>
-      <c r="U47" s="154"/>
-      <c r="V47" s="161"/>
-      <c r="W47" s="161"/>
-      <c r="X47" s="161"/>
-      <c r="Y47" s="161"/>
-      <c r="Z47" s="161"/>
-      <c r="AA47" s="161"/>
-      <c r="AB47" s="161"/>
-      <c r="AC47" s="161"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S47" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T47" s="151"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="148"/>
+      <c r="AC47" s="148"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
@@ -6204,33 +6215,33 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K48" s="67">
         <v>10</v>
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="S48" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="162"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="162"/>
-      <c r="Z48" s="162"/>
-      <c r="AA48" s="162"/>
-      <c r="AB48" s="162"/>
-      <c r="AC48" s="162"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="S48" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="T48" s="152"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="149"/>
+      <c r="AC48" s="149"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="67" t="s">
@@ -6254,45 +6265,45 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K49" s="67">
         <v>3</v>
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="153" t="s">
-        <v>126</v>
-      </c>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="S49" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="T49" s="153" t="s">
+      <c r="N49" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="S49" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="T49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="153" t="s">
+      <c r="U49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y49" s="160">
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y49" s="147">
         <v>15</v>
       </c>
-      <c r="Z49" s="160"/>
-      <c r="AA49" s="160"/>
-      <c r="AB49" s="160"/>
-      <c r="AC49" s="160"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="67" t="s">
@@ -6316,33 +6327,33 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50" s="67">
         <v>4</v>
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S50" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="161"/>
-      <c r="W50" s="161"/>
-      <c r="X50" s="161"/>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
-      <c r="AA50" s="161"/>
-      <c r="AB50" s="161"/>
-      <c r="AC50" s="161"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S50" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="148"/>
+      <c r="AC50" s="148"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
@@ -6366,33 +6377,33 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" s="67">
         <v>4</v>
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="154"/>
-      <c r="O51" s="148"/>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S51" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="161"/>
-      <c r="W51" s="161"/>
-      <c r="X51" s="161"/>
-      <c r="Y51" s="161"/>
-      <c r="Z51" s="161"/>
-      <c r="AA51" s="161"/>
-      <c r="AB51" s="161"/>
-      <c r="AC51" s="161"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S51" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="148"/>
+      <c r="AB51" s="148"/>
+      <c r="AC51" s="148"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
@@ -6416,33 +6427,33 @@
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K52" s="67">
         <v>8</v>
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="148"/>
-      <c r="P52" s="148"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S52" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="161"/>
-      <c r="W52" s="161"/>
-      <c r="X52" s="161"/>
-      <c r="Y52" s="161"/>
-      <c r="Z52" s="161"/>
-      <c r="AA52" s="161"/>
-      <c r="AB52" s="161"/>
-      <c r="AC52" s="161"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="151"/>
+      <c r="R52" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S52" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T52" s="151"/>
+      <c r="U52" s="151"/>
+      <c r="V52" s="148"/>
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="148"/>
+      <c r="AC52" s="148"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
@@ -6466,33 +6477,33 @@
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K53" s="67">
         <v>1</v>
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S53" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T53" s="154"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="161"/>
-      <c r="W53" s="161"/>
-      <c r="X53" s="161"/>
-      <c r="Y53" s="161"/>
-      <c r="Z53" s="161"/>
-      <c r="AA53" s="161"/>
-      <c r="AB53" s="161"/>
-      <c r="AC53" s="161"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S53" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="148"/>
+      <c r="Y53" s="148"/>
+      <c r="Z53" s="148"/>
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="148"/>
+      <c r="AC53" s="148"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="104"/>
@@ -6508,33 +6519,33 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K54" s="3">
         <v>60</v>
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S54" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="161"/>
-      <c r="W54" s="161"/>
-      <c r="X54" s="161"/>
-      <c r="Y54" s="161"/>
-      <c r="Z54" s="161"/>
-      <c r="AA54" s="161"/>
-      <c r="AB54" s="161"/>
-      <c r="AC54" s="161"/>
+      <c r="N54" s="151"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S54" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="67" t="s">
@@ -6558,33 +6569,33 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K55" s="67">
         <v>6</v>
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="148"/>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="S55" s="154" t="s">
-        <v>147</v>
-      </c>
-      <c r="T55" s="154"/>
-      <c r="U55" s="154"/>
-      <c r="V55" s="161"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="161"/>
-      <c r="Y55" s="161"/>
-      <c r="Z55" s="161"/>
-      <c r="AA55" s="161"/>
-      <c r="AB55" s="161"/>
-      <c r="AC55" s="161"/>
+      <c r="N55" s="151"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="151"/>
+      <c r="R55" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="S55" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T55" s="151"/>
+      <c r="U55" s="151"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="148"/>
+      <c r="AC55" s="148"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="67" t="s">
@@ -6608,33 +6619,33 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K56" s="67">
         <v>10</v>
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="S56" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="T56" s="155"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="162"/>
-      <c r="W56" s="162"/>
-      <c r="X56" s="162"/>
-      <c r="Y56" s="162"/>
-      <c r="Z56" s="162"/>
-      <c r="AA56" s="162"/>
-      <c r="AB56" s="162"/>
-      <c r="AC56" s="162"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="S56" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="149"/>
+      <c r="Y56" s="149"/>
+      <c r="Z56" s="149"/>
+      <c r="AA56" s="149"/>
+      <c r="AB56" s="149"/>
+      <c r="AC56" s="149"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="91"/>
@@ -6650,7 +6661,7 @@
       <c r="L57" s="94"/>
       <c r="M57" s="91"/>
       <c r="N57" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O57" s="95"/>
       <c r="P57" s="95"/>
@@ -6658,23 +6669,23 @@
         <v>120</v>
       </c>
       <c r="R57" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T57" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U57" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V57" s="96"/>
       <c r="W57" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y57" s="67">
         <v>2</v>
@@ -6698,7 +6709,7 @@
       <c r="L58" s="94"/>
       <c r="M58" s="91"/>
       <c r="N58" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O58" s="95"/>
       <c r="P58" s="95"/>
@@ -6706,23 +6717,23 @@
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T58" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U58" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V58" s="96"/>
       <c r="W58" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X58" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y58" s="67">
         <v>2</v>
@@ -6752,23 +6763,23 @@
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T59" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U59" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V59" s="96"/>
       <c r="W59" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X59" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y59" s="67"/>
       <c r="Z59" s="87"/>
@@ -7307,25 +7318,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7342,6 +7334,25 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7498,39 +7509,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -7628,19 +7639,19 @@
         <v>120</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="96"/>
       <c r="H4" s="96"/>
       <c r="I4" s="96"/>
       <c r="J4" s="89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" s="87">
         <v>2</v>
@@ -7648,7 +7659,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="96"/>
       <c r="N4" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O4" s="98"/>
       <c r="P4" s="95"/>
@@ -7656,23 +7667,23 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T4" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U4" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V4" s="96"/>
       <c r="W4" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X4" s="89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y4" s="87">
         <v>2</v>
@@ -7691,10 +7702,10 @@
         <v>120</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>90</v>
@@ -7703,7 +7714,7 @@
       <c r="H5" s="96"/>
       <c r="I5" s="96"/>
       <c r="J5" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="87">
         <v>1</v>
@@ -7711,7 +7722,7 @@
       <c r="L5" s="87"/>
       <c r="M5" s="96"/>
       <c r="N5" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="95"/>
@@ -7719,23 +7730,23 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V5" s="96"/>
       <c r="W5" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X5" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y5" s="87">
         <v>1</v>
@@ -8155,6 +8166,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8203,17 +8218,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8222,7 +8227,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8237,15 +8256,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8258,12 +8277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -992,6 +992,125 @@
     <t>CAMPUS</t>
   </si>
   <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projeto: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Projeto Custo de Pessoal - Interface SIA-ADP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mapa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Apuração Atuação Variável</t>
+    </r>
+  </si>
+  <si>
+    <t>Complexidade: Simples</t>
+  </si>
+  <si>
+    <t>MES_REFERENCIA_ATUACAO</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO_RH</t>
+  </si>
+  <si>
+    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
+  </si>
+  <si>
+    <t>Preencher com o valor fixo 'N'</t>
+  </si>
+  <si>
+    <t>Preencher com o valor Fixo '0'</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DATA_ALOCACAO</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
+    THEN
+      V_DESTINO := 1;
+   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
+     THEN
+      V_DESTINO := 2;
+  END IF;</t>
+  </si>
+  <si>
+    <t>IF IND_AUTORIZACAO = 3 
+ELSIF IND_FIXO_VARIAVEL = 'V' 
+ELSIF IND_TIPO_SALARIO in ('H','M') 
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>REMUNERACAO_DOCENTE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vanessa Felix</t>
+    </r>
+  </si>
+  <si>
+    <t>Vanessa Felix</t>
+  </si>
+  <si>
+    <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
+  </si>
+  <si>
+    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
+          THEN
+            --
+ ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
+          THEN
+            --
+            IF NVL(R_AP.VALOR_HORA, 0) &lt; 0
+            THEN
+              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
+            END IF;
+            --
+          END IF;</t>
+  </si>
+  <si>
     <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
           THEN
             --
@@ -1003,127 +1122,6 @@
             IF NVL(R_AP.VALOR_HORA, 0) &gt; 0
             THEN
               V_VALOR_MOVIMENTO := ((R_AP.VALOR_HORA * R_AP.HORA_FIXA) / 30) * V_QTDE_DIAS_TRAB;
-            ELSE
-              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
-            END IF;
-            --
-          END IF;</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Projeto: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Projeto Custo de Pessoal - Interface SIA-ADP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mapa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Apuração Atuação Variável</t>
-    </r>
-  </si>
-  <si>
-    <t>Complexidade: Simples</t>
-  </si>
-  <si>
-    <t>MES_REFERENCIA_ATUACAO</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO_RH</t>
-  </si>
-  <si>
-    <t>Bloqueio de pagamento dos docentes que fazem parte do administrativo RH</t>
-  </si>
-  <si>
-    <t>Preencher com o valor fixo 'N'</t>
-  </si>
-  <si>
-    <t>Preencher com o valor Fixo '0'</t>
-  </si>
-  <si>
-    <t>FLAG_RETROATIVO</t>
-  </si>
-  <si>
-    <t>IND_APTO_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>DATA_ALOCACAO</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>IND_DESTINO</t>
-  </si>
-  <si>
-    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
-    THEN
-      V_DESTINO := 1;
-   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
-     THEN
-      V_DESTINO := 2;
-  END IF;</t>
-  </si>
-  <si>
-    <t>IF IND_AUTORIZACAO = 3 
-ELSIF IND_FIXO_VARIAVEL = 'V' 
-ELSIF IND_TIPO_SALARIO in ('H','M') 
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>REMUNERACAO_DOCENTE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arquiteto/Designer Responsável: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vanessa Felix</t>
-    </r>
-  </si>
-  <si>
-    <t>Vanessa Felix</t>
-  </si>
-  <si>
-    <t>Carregar com 'PRO_APURACAO_ATUACAO_VARIAVEL'</t>
-  </si>
-  <si>
-    <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
-          THEN
-            --
- ELSIF NVL(R_AP.HORA_FIXA, 0) &gt; 0
-          THEN
-            --
-            IF NVL(R_AP.VALOR_HORA, 0) &lt; 0
-            THEN
-              V_QTDE_HORA_MOVIMENTO := (R_AP.HORA_FIXA / 30) * V_QTDE_DIAS_TRAB;
             END IF;
             --
           END IF;</t>
@@ -1890,9 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1978,6 +1973,69 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,107 +2045,86 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2097,45 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2833,14 +2831,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="116"/>
+      <c r="C2" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>1</v>
@@ -2848,12 +2846,12 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -2874,28 +2872,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43" t="s">
@@ -2904,17 +2902,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
@@ -2923,92 +2921,84 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="D12" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3019,6 +3009,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3056,7 +3054,7 @@
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="41" t="str">
         <f>Identificação!D3</f>
@@ -3076,17 +3074,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
@@ -3095,119 +3093,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="90" t="s">
-        <v>134</v>
+      <c r="B12" s="89" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -3221,17 +3219,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
@@ -3243,29 +3241,29 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -3279,11 +3277,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
@@ -3297,18 +3295,18 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="88"/>
+      <c r="B23" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="87"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="87" t="s">
         <v>135</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>136</v>
       </c>
       <c r="D24" s="13"/>
     </row>
@@ -3324,17 +3322,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
@@ -3346,52 +3344,61 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3408,15 +3415,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3434,7 +3432,7 @@
   <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J37" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
@@ -3482,39 +3480,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -3625,7 +3623,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
       <c r="J4" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="67">
         <v>10</v>
@@ -3641,10 +3639,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3652,10 +3650,10 @@
       <c r="U4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="84"/>
+      <c r="V4" s="83"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="67">
         <v>10</v>
@@ -3687,7 +3685,7 @@
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="67">
         <v>10</v>
@@ -3703,10 +3701,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3714,10 +3712,10 @@
       <c r="U5" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="84"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="67">
         <v>10</v>
@@ -3749,7 +3747,7 @@
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="67">
         <v>2</v>
@@ -3765,10 +3763,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3776,10 +3774,10 @@
       <c r="U6" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="85"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="67">
         <v>2</v>
@@ -3811,7 +3809,7 @@
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
@@ -3825,10 +3823,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3836,10 +3834,10 @@
       <c r="U7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="V7" s="86"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y7" s="67"/>
       <c r="Z7" s="67"/>
@@ -3869,7 +3867,7 @@
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
@@ -3883,10 +3881,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3894,10 +3892,10 @@
       <c r="U8" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="V8" s="84"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y8" s="67"/>
       <c r="Z8" s="67"/>
@@ -3927,7 +3925,7 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="67">
         <v>4</v>
@@ -3943,10 +3941,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3954,10 +3952,10 @@
       <c r="U9" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="84"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="66"/>
       <c r="X9" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="67">
         <v>4</v>
@@ -3989,7 +3987,7 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" s="67">
         <v>1</v>
@@ -4005,10 +4003,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -4016,10 +4014,10 @@
       <c r="U10" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="V10" s="84"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="66"/>
       <c r="X10" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y10" s="67">
         <v>1</v>
@@ -4051,7 +4049,7 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" s="67">
         <v>4</v>
@@ -4067,10 +4065,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -4078,10 +4076,10 @@
       <c r="U11" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="84"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="66"/>
       <c r="X11" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y11" s="67">
         <v>4</v>
@@ -4113,7 +4111,7 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" s="67">
         <v>8</v>
@@ -4129,10 +4127,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4140,10 +4138,10 @@
       <c r="U12" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="V12" s="85"/>
+      <c r="V12" s="84"/>
       <c r="W12" s="66"/>
       <c r="X12" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="67">
         <v>8</v>
@@ -4175,7 +4173,7 @@
       <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="69">
         <v>12</v>
@@ -4193,10 +4191,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4204,10 +4202,10 @@
       <c r="U13" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="86"/>
+      <c r="V13" s="85"/>
       <c r="W13" s="66"/>
       <c r="X13" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="69">
         <v>12</v>
@@ -4241,7 +4239,7 @@
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="67">
         <v>6</v>
@@ -4259,10 +4257,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4270,10 +4268,10 @@
       <c r="U14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="V14" s="86"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="66"/>
       <c r="X14" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y14" s="67">
         <v>6</v>
@@ -4307,7 +4305,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
       <c r="J15" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="67">
         <v>6</v>
@@ -4325,10 +4323,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4336,10 +4334,10 @@
       <c r="U15" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="V15" s="86"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="66"/>
       <c r="X15" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y15" s="67">
         <v>6</v>
@@ -4373,7 +4371,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K16" s="67">
         <v>11</v>
@@ -4389,10 +4387,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4400,10 +4398,10 @@
       <c r="U16" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="67"/>
       <c r="X16" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y16" s="67">
         <v>1</v>
@@ -4435,7 +4433,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
       <c r="J17" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4451,10 +4449,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4462,10 +4460,10 @@
       <c r="U17" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="87"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="67"/>
       <c r="X17" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4497,7 +4495,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K18" s="67">
         <v>1</v>
@@ -4513,10 +4511,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4524,10 +4522,10 @@
       <c r="U18" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="V18" s="87"/>
+      <c r="V18" s="86"/>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y18" s="67">
         <v>11</v>
@@ -4559,7 +4557,7 @@
       <c r="H19" s="67"/>
       <c r="I19" s="67"/>
       <c r="J19" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" s="67">
         <v>8</v>
@@ -4576,11 +4574,11 @@
       <c r="Q19" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="S19" s="108" t="s">
-        <v>146</v>
+      <c r="R19" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T19" s="71" t="s">
         <v>91</v>
@@ -4588,10 +4586,10 @@
       <c r="U19" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="87"/>
+      <c r="V19" s="86"/>
       <c r="W19" s="67"/>
       <c r="X19" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y19" s="67">
         <v>8</v>
@@ -4625,7 +4623,7 @@
       <c r="H20" s="67"/>
       <c r="I20" s="67"/>
       <c r="J20" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="67">
         <v>5</v>
@@ -4641,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4652,10 +4650,10 @@
       <c r="U20" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="V20" s="87"/>
+      <c r="V20" s="86"/>
       <c r="W20" s="67"/>
       <c r="X20" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y20" s="67">
         <v>5</v>
@@ -4687,7 +4685,7 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="67">
         <v>10</v>
@@ -4703,10 +4701,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4714,10 +4712,10 @@
       <c r="U21" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="87"/>
+      <c r="V21" s="86"/>
       <c r="W21" s="67"/>
       <c r="X21" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y21" s="67">
         <v>10</v>
@@ -4749,7 +4747,7 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" s="67">
         <v>2</v>
@@ -4765,10 +4763,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4776,10 +4774,10 @@
       <c r="U22" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="87"/>
+      <c r="V22" s="86"/>
       <c r="W22" s="67"/>
       <c r="X22" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="67">
         <v>2</v>
@@ -4811,7 +4809,7 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K23" s="67">
         <v>15</v>
@@ -4827,10 +4825,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4838,10 +4836,10 @@
       <c r="U23" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="V23" s="87"/>
+      <c r="V23" s="86"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y23" s="67">
         <v>15</v>
@@ -4873,7 +4871,7 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K24" s="67">
         <v>2</v>
@@ -4889,10 +4887,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4900,10 +4898,10 @@
       <c r="U24" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="V24" s="87"/>
+      <c r="V24" s="86"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y24" s="67">
         <v>2</v>
@@ -4935,7 +4933,7 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" s="67">
         <v>5</v>
@@ -4950,11 +4948,11 @@
       <c r="Q25" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25" s="108" t="s">
-        <v>146</v>
+      <c r="R25" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S25" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>97</v>
@@ -4962,10 +4960,10 @@
       <c r="U25" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="V25" s="87"/>
+      <c r="V25" s="86"/>
       <c r="W25" s="67"/>
       <c r="X25" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y25" s="67">
         <v>5</v>
@@ -4997,7 +4995,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" s="67">
         <v>11</v>
@@ -5013,10 +5011,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -5024,10 +5022,10 @@
       <c r="U26" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="V26" s="87"/>
+      <c r="V26" s="86"/>
       <c r="W26" s="67"/>
       <c r="X26" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="67">
         <v>11</v>
@@ -5059,7 +5057,7 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K27" s="67">
         <v>3</v>
@@ -5075,10 +5073,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5086,10 +5084,10 @@
       <c r="U27" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="V27" s="87"/>
+      <c r="V27" s="86"/>
       <c r="W27" s="67"/>
       <c r="X27" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y27" s="67">
         <v>3</v>
@@ -5121,7 +5119,7 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K28" s="67">
         <v>5</v>
@@ -5137,10 +5135,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5148,10 +5146,10 @@
       <c r="U28" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="V28" s="87"/>
+      <c r="V28" s="86"/>
       <c r="W28" s="67"/>
       <c r="X28" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y28" s="67">
         <v>5</v>
@@ -5183,7 +5181,7 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29" s="67">
         <v>1</v>
@@ -5199,10 +5197,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5210,10 +5208,10 @@
       <c r="U29" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="V29" s="87"/>
+      <c r="V29" s="86"/>
       <c r="W29" s="67"/>
       <c r="X29" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y29" s="67">
         <v>1</v>
@@ -5239,13 +5237,13 @@
       <c r="F30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="83" t="s">
+      <c r="G30" s="82" t="s">
         <v>102</v>
       </c>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30" s="67">
         <v>3</v>
@@ -5261,10 +5259,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5272,10 +5270,10 @@
       <c r="U30" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="V30" s="87"/>
+      <c r="V30" s="86"/>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y30" s="67">
         <v>3</v>
@@ -5298,7 +5296,7 @@
       <c r="E31" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="80" t="s">
         <v>104</v>
       </c>
       <c r="G31" s="70" t="s">
@@ -5307,7 +5305,7 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" s="67">
         <v>6</v>
@@ -5323,10 +5321,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5334,10 +5332,10 @@
       <c r="U31" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="V31" s="87"/>
+      <c r="V31" s="86"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y31" s="67">
         <v>6</v>
@@ -5360,7 +5358,7 @@
       <c r="E32" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="80" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="70" t="s">
@@ -5369,7 +5367,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32" s="67">
         <v>1</v>
@@ -5385,21 +5383,21 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="T32" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="T32" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="U32" s="81" t="s">
+      <c r="U32" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="V32" s="87"/>
+      <c r="V32" s="86"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y32" s="67">
         <v>1</v>
@@ -5431,7 +5429,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K33" s="67">
         <v>1</v>
@@ -5447,10 +5445,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5458,10 +5456,10 @@
       <c r="U33" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="V33" s="87"/>
+      <c r="V33" s="86"/>
       <c r="W33" s="67"/>
       <c r="X33" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y33" s="67">
         <v>1</v>
@@ -5493,7 +5491,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K34" s="67">
         <v>1</v>
@@ -5509,10 +5507,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5520,10 +5518,10 @@
       <c r="U34" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="V34" s="87"/>
+      <c r="V34" s="86"/>
       <c r="W34" s="67"/>
       <c r="X34" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y34" s="67">
         <v>1</v>
@@ -5534,18 +5532,18 @@
       <c r="AC34" s="67"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="102"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="67" t="s">
         <v>107</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -5553,7 +5551,7 @@
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
@@ -5561,10 +5559,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5572,12 +5570,12 @@
       <c r="U35" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="V35" s="87"/>
+      <c r="V35" s="86"/>
       <c r="W35" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5587,7 +5585,7 @@
       <c r="AB35" s="67"/>
       <c r="AC35" s="67"/>
     </row>
-    <row r="36" spans="2:29" ht="228" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" ht="192" x14ac:dyDescent="0.2">
       <c r="B36" s="67" t="s">
         <v>119</v>
       </c>
@@ -5609,7 +5607,7 @@
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K36" s="67">
         <v>12</v>
@@ -5618,30 +5616,30 @@
         <v>2</v>
       </c>
       <c r="M36" s="67"/>
-      <c r="N36" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="R36" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="S36" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="T36" s="82" t="s">
+      <c r="N36" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S36" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="T36" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="U36" s="107" t="s">
+      <c r="U36" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="87"/>
+      <c r="V36" s="86"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y36" s="67">
         <v>12</v>
@@ -5654,18 +5652,18 @@
       <c r="AC36" s="67"/>
     </row>
     <row r="37" spans="2:29" ht="156" x14ac:dyDescent="0.2">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="106"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="105"/>
       <c r="G37" s="71" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
       <c r="J37" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K37" s="67">
         <v>6</v>
@@ -5675,18 +5673,18 @@
       </c>
       <c r="M37" s="67"/>
       <c r="N37" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O37" s="63"/>
       <c r="P37" s="64"/>
-      <c r="Q37" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="S37" s="65" t="s">
-        <v>146</v>
+      <c r="Q37" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S37" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5694,10 +5692,10 @@
       <c r="U37" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="V37" s="87"/>
+      <c r="V37" s="86"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="67">
         <v>6</v>
@@ -5731,52 +5729,52 @@
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K38" s="67">
         <v>1</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="150" t="s">
+      <c r="N38" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="S38" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="T38" s="150" t="s">
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="150" t="s">
+      <c r="U38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y38" s="147">
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y38" s="160">
         <v>30</v>
       </c>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="147"/>
-      <c r="AB38" s="147"/>
-      <c r="AC38" s="147"/>
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
       <c r="G39" s="78" t="s">
         <v>123</v>
       </c>
@@ -5786,33 +5784,33 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S39" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S39" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="70" t="s">
         <v>124</v>
       </c>
@@ -5822,26 +5820,26 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S40" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="148"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S40" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="67" t="s">
@@ -5865,33 +5863,33 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K41" s="67">
         <v>2</v>
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S41" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="148"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="148"/>
-      <c r="AA41" s="148"/>
-      <c r="AB41" s="148"/>
-      <c r="AC41" s="148"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S41" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="161"/>
+      <c r="AA41" s="161"/>
+      <c r="AB41" s="161"/>
+      <c r="AC41" s="161"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
@@ -5915,33 +5913,33 @@
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K42" s="67">
         <v>4</v>
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S42" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
-      <c r="AC42" s="148"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S42" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="67" t="s">
@@ -5965,33 +5963,33 @@
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K43" s="67">
         <v>8</v>
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S43" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="148"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="148"/>
-      <c r="AB43" s="148"/>
-      <c r="AC43" s="148"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S43" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="161"/>
+      <c r="AA43" s="161"/>
+      <c r="AB43" s="161"/>
+      <c r="AC43" s="161"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
@@ -6015,33 +6013,33 @@
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="67">
         <v>4</v>
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S44" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="148"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="148"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="148"/>
-      <c r="AB44" s="148"/>
-      <c r="AC44" s="148"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S44" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="67" t="s">
@@ -6065,33 +6063,33 @@
       <c r="H45" s="67"/>
       <c r="I45" s="67"/>
       <c r="J45" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K45" s="67">
         <v>1</v>
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S45" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-      <c r="AA45" s="148"/>
-      <c r="AB45" s="148"/>
-      <c r="AC45" s="148"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+      <c r="AA45" s="161"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="67" t="s">
@@ -6115,33 +6113,33 @@
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
       <c r="J46" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" s="67">
         <v>3</v>
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S46" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="148"/>
-      <c r="X46" s="148"/>
-      <c r="Y46" s="148"/>
-      <c r="Z46" s="148"/>
-      <c r="AA46" s="148"/>
-      <c r="AB46" s="148"/>
-      <c r="AC46" s="148"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+      <c r="AA46" s="161"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="67" t="s">
@@ -6165,33 +6163,33 @@
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
       <c r="J47" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" s="67">
         <v>6</v>
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S47" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="161"/>
+      <c r="AA47" s="161"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
@@ -6215,33 +6213,33 @@
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
       <c r="J48" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K48" s="67">
         <v>10</v>
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="S48" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="T48" s="152"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="149"/>
-      <c r="AC48" s="149"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="S48" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="67" t="s">
@@ -6265,45 +6263,45 @@
       <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K49" s="67">
         <v>3</v>
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="150" t="s">
+      <c r="N49" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="S49" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="T49" s="150" t="s">
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="S49" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="T49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="150" t="s">
+      <c r="U49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y49" s="147">
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y49" s="160">
         <v>15</v>
       </c>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
+      <c r="Z49" s="160"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="160"/>
+      <c r="AC49" s="160"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="67" t="s">
@@ -6327,33 +6325,33 @@
       <c r="H50" s="67"/>
       <c r="I50" s="67"/>
       <c r="J50" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" s="67">
         <v>4</v>
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S50" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="148"/>
-      <c r="AC50" s="148"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="161"/>
+      <c r="W50" s="161"/>
+      <c r="X50" s="161"/>
+      <c r="Y50" s="161"/>
+      <c r="Z50" s="161"/>
+      <c r="AA50" s="161"/>
+      <c r="AB50" s="161"/>
+      <c r="AC50" s="161"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
@@ -6377,33 +6375,33 @@
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K51" s="67">
         <v>4</v>
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S51" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S51" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161"/>
+      <c r="Z51" s="161"/>
+      <c r="AA51" s="161"/>
+      <c r="AB51" s="161"/>
+      <c r="AC51" s="161"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
@@ -6427,33 +6425,33 @@
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K52" s="67">
         <v>8</v>
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S52" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="148"/>
-      <c r="W52" s="148"/>
-      <c r="X52" s="148"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="148"/>
-      <c r="AA52" s="148"/>
-      <c r="AB52" s="148"/>
-      <c r="AC52" s="148"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S52" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="161"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="161"/>
+      <c r="Z52" s="161"/>
+      <c r="AA52" s="161"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
@@ -6477,39 +6475,39 @@
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K53" s="67">
         <v>1</v>
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S53" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="148"/>
-      <c r="W53" s="148"/>
-      <c r="X53" s="148"/>
-      <c r="Y53" s="148"/>
-      <c r="Z53" s="148"/>
-      <c r="AA53" s="148"/>
-      <c r="AB53" s="148"/>
-      <c r="AC53" s="148"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S53" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="161"/>
+      <c r="Z53" s="161"/>
+      <c r="AA53" s="161"/>
+      <c r="AB53" s="161"/>
+      <c r="AC53" s="161"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="103"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="70" t="s">
         <v>107</v>
       </c>
@@ -6519,33 +6517,33 @@
       <c r="H54" s="67"/>
       <c r="I54" s="67"/>
       <c r="J54" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" s="3">
         <v>60</v>
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S54" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T54" s="151"/>
-      <c r="U54" s="151"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="148"/>
-      <c r="AB54" s="148"/>
-      <c r="AC54" s="148"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="161"/>
+      <c r="AA54" s="161"/>
+      <c r="AB54" s="161"/>
+      <c r="AC54" s="161"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="67" t="s">
@@ -6569,33 +6567,33 @@
       <c r="H55" s="67"/>
       <c r="I55" s="67"/>
       <c r="J55" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K55" s="67">
         <v>6</v>
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="151"/>
-      <c r="R55" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="S55" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T55" s="151"/>
-      <c r="U55" s="151"/>
-      <c r="V55" s="148"/>
-      <c r="W55" s="148"/>
-      <c r="X55" s="148"/>
-      <c r="Y55" s="148"/>
-      <c r="Z55" s="148"/>
-      <c r="AA55" s="148"/>
-      <c r="AB55" s="148"/>
-      <c r="AC55" s="148"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
+      <c r="X55" s="161"/>
+      <c r="Y55" s="161"/>
+      <c r="Z55" s="161"/>
+      <c r="AA55" s="161"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="67" t="s">
@@ -6619,173 +6617,173 @@
       <c r="H56" s="67"/>
       <c r="I56" s="67"/>
       <c r="J56" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K56" s="67">
         <v>10</v>
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="S56" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="149"/>
-      <c r="Y56" s="149"/>
-      <c r="Z56" s="149"/>
-      <c r="AA56" s="149"/>
-      <c r="AB56" s="149"/>
-      <c r="AC56" s="149"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="162"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="162"/>
+      <c r="Y56" s="162"/>
+      <c r="Z56" s="162"/>
+      <c r="AA56" s="162"/>
+      <c r="AB56" s="162"/>
+      <c r="AC56" s="162"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="91"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="90"/>
       <c r="N57" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="O57" s="95"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R57" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T57" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U57" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="V57" s="96"/>
+        <v>138</v>
+      </c>
+      <c r="V57" s="95"/>
       <c r="W57" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y57" s="67">
         <v>2</v>
       </c>
-      <c r="Z57" s="87"/>
-      <c r="AA57" s="87"/>
-      <c r="AB57" s="87"/>
-      <c r="AC57" s="87"/>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="86"/>
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="86"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="91"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="90"/>
       <c r="N58" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T58" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U58" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="V58" s="96"/>
+        <v>139</v>
+      </c>
+      <c r="V58" s="95"/>
       <c r="W58" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X58" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y58" s="67">
         <v>2</v>
       </c>
-      <c r="Z58" s="87"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87"/>
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="86"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="86"/>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="97" t="s">
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T59" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="U59" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="V59" s="95"/>
+      <c r="W59" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="U59" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="V59" s="96"/>
-      <c r="W59" s="67" t="s">
-        <v>142</v>
-      </c>
       <c r="X59" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y59" s="67"/>
-      <c r="Z59" s="87"/>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="87"/>
-      <c r="AC59" s="87"/>
+      <c r="Z59" s="86"/>
+      <c r="AA59" s="86"/>
+      <c r="AB59" s="86"/>
+      <c r="AC59" s="86"/>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="58"/>
@@ -7318,6 +7316,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7334,25 +7351,6 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7509,39 +7507,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -7638,60 +7636,60 @@
       <c r="C4" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>146</v>
+      <c r="D4" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>145</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="87">
+        <v>139</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="86">
         <v>2</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="96"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="O4" s="97"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T4" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U4" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="V4" s="96"/>
-      <c r="W4" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="X4" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y4" s="87">
+        <v>139</v>
+      </c>
+      <c r="V4" s="95"/>
+      <c r="W4" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="86">
         <v>2</v>
       </c>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" ht="84" x14ac:dyDescent="0.2">
@@ -7701,60 +7699,60 @@
       <c r="C5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>146</v>
+      <c r="D5" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>145</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="87">
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="86">
         <v>1</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="96"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="95"/>
       <c r="N5" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="96" t="s">
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U5" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="V5" s="96"/>
-      <c r="W5" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="X5" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y5" s="87">
+      <c r="V5" s="95"/>
+      <c r="W5" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="86">
         <v>1</v>
       </c>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="58"/>
@@ -8166,10 +8164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8218,7 +8212,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8227,21 +8231,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8256,15 +8246,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8277,4 +8267,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>